--- a/storage/csv/deployment/FINANCIAL STATEMENT.xlsx
+++ b/storage/csv/deployment/FINANCIAL STATEMENT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\home\oxytoxin\Sites\sksumpc\storage\csv\deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5925C1D-60E5-449B-8EC2-5CE83D078418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50DA9F3-687D-48A7-BA50-57C5F2F36D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1028,8 +1028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="C118" sqref="C118"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="J106" sqref="J106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1040,7 +1040,7 @@
     <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>9</v>
       </c>
@@ -1161,12 +1161,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
@@ -1202,152 +1202,152 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="5">
         <v>54096140.710000008</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="5">
         <v>2440123.1500000008</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="5">
         <v>2805460.4600000014</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="5">
         <v>15719618.160000002</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="5">
         <v>1072706.5900000003</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="5">
         <v>2989900</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="5">
         <v>55061.360000000008</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="5">
         <v>86194.43</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="5">
         <v>16622600.959999993</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="5">
         <v>132831.67000000001</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -2309,11 +2309,11 @@
       <c r="B110" s="5">
         <v>20036301.87000002</v>
       </c>
-      <c r="C110" s="15">
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110" s="15">
         <v>21110</v>
-      </c>
-      <c r="D110">
-        <v>0</v>
       </c>
       <c r="G110" s="20"/>
     </row>
@@ -2324,11 +2324,11 @@
       <c r="B111" s="5">
         <v>18074739.229999986</v>
       </c>
-      <c r="C111" s="15">
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111" s="15">
         <v>21112</v>
-      </c>
-      <c r="D111">
-        <v>0</v>
       </c>
       <c r="G111" s="20"/>
     </row>
@@ -2527,7 +2527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>120</v>
       </c>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
         <v>121</v>
       </c>
@@ -2553,12 +2553,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D131">
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:4" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A132" s="9" t="s">
         <v>122</v>
       </c>
@@ -2570,17 +2570,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D133">
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D134">
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>123</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>124</v>
       </c>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>125</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>126</v>
       </c>
@@ -2621,63 +2621,63 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="12" t="s">
         <v>127</v>
       </c>
       <c r="B139" s="13">
         <v>57189000.000000007</v>
       </c>
-      <c r="C139" s="19" t="s">
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="D139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="12" t="s">
         <v>128</v>
       </c>
       <c r="B140" s="13">
         <v>89012.479999999996</v>
       </c>
-      <c r="C140" s="19" t="s">
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="D140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B141" s="5">
         <v>567400</v>
       </c>
-      <c r="C141" s="15" t="s">
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="D141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B142" s="5">
         <v>11158.24</v>
       </c>
-      <c r="C142" s="15" t="s">
+      <c r="D142">
+        <v>0</v>
+      </c>
+      <c r="E142" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="D142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
         <v>131</v>
       </c>
@@ -2689,7 +2689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>132</v>
       </c>
@@ -2697,7 +2697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>133</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>134</v>
       </c>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>126</v>
       </c>
@@ -2730,35 +2730,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B148" s="5">
         <v>4300500</v>
       </c>
-      <c r="C148" s="15" t="s">
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="D148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B149" s="5">
         <v>14461.23</v>
       </c>
-      <c r="C149" s="15" t="s">
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="D149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
         <v>137</v>
       </c>
@@ -2770,12 +2770,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D151">
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
         <v>138</v>
       </c>
@@ -2787,12 +2787,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D153">
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
         <v>139</v>
       </c>
@@ -2806,12 +2806,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D155">
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>140</v>
       </c>
@@ -2819,7 +2819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>141</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>142</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>143</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>144</v>
       </c>
